--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H2">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I2">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J2">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>1151.869665969093</v>
+        <v>3335.618421140587</v>
       </c>
       <c r="R2">
-        <v>10366.82699372184</v>
+        <v>30020.56579026529</v>
       </c>
       <c r="S2">
-        <v>0.009053417897231786</v>
+        <v>0.02445609186650259</v>
       </c>
       <c r="T2">
-        <v>0.009053417897231788</v>
+        <v>0.02445609186650259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H3">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I3">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J3">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>1769.621639659928</v>
+        <v>2746.904214331553</v>
       </c>
       <c r="R3">
-        <v>15926.59475693935</v>
+        <v>24722.13792898398</v>
       </c>
       <c r="S3">
-        <v>0.01390879949108386</v>
+        <v>0.02013975621084513</v>
       </c>
       <c r="T3">
-        <v>0.01390879949108386</v>
+        <v>0.02013975621084513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H4">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I4">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J4">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>884.267560952072</v>
+        <v>1584.776012109131</v>
       </c>
       <c r="R4">
-        <v>7958.408048568649</v>
+        <v>14262.98410898218</v>
       </c>
       <c r="S4">
-        <v>0.00695012986172326</v>
+        <v>0.01161926301112036</v>
       </c>
       <c r="T4">
-        <v>0.00695012986172326</v>
+        <v>0.01161926301112036</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H5">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I5">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J5">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>1407.468982639175</v>
+        <v>1601.81975453447</v>
       </c>
       <c r="R5">
-        <v>12667.22084375258</v>
+        <v>14416.37779081023</v>
       </c>
       <c r="S5">
-        <v>0.01106236690980456</v>
+        <v>0.01174422434598449</v>
       </c>
       <c r="T5">
-        <v>0.01106236690980456</v>
+        <v>0.01174422434598449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H6">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I6">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J6">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>707.0022603790979</v>
+        <v>1206.540994176569</v>
       </c>
       <c r="R6">
-        <v>6363.020343411882</v>
+        <v>10858.86894758912</v>
       </c>
       <c r="S6">
-        <v>0.005556867331960108</v>
+        <v>0.008846118970704616</v>
       </c>
       <c r="T6">
-        <v>0.005556867331960109</v>
+        <v>0.008846118970704614</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H7">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I7">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J7">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>928.1326331541101</v>
+        <v>2018.647290223051</v>
       </c>
       <c r="R7">
-        <v>8353.193698386993</v>
+        <v>18167.82561200746</v>
       </c>
       <c r="S7">
-        <v>0.007294898754828178</v>
+        <v>0.01480032106276725</v>
       </c>
       <c r="T7">
-        <v>0.007294898754828178</v>
+        <v>0.01480032106276724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>22.297341</v>
       </c>
       <c r="H8">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I8">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J8">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>2113.784604496191</v>
+        <v>3943.398412829525</v>
       </c>
       <c r="R8">
-        <v>19024.06144046572</v>
+        <v>35490.58571546572</v>
       </c>
       <c r="S8">
-        <v>0.0166138374285067</v>
+        <v>0.02891221407075767</v>
       </c>
       <c r="T8">
-        <v>0.0166138374285067</v>
+        <v>0.02891221407075766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>22.297341</v>
       </c>
       <c r="H9">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I9">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J9">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
-        <v>3247.415127083335</v>
+        <v>3247.415127083336</v>
       </c>
       <c r="R9">
-        <v>29226.73614375002</v>
+        <v>29226.73614375003</v>
       </c>
       <c r="S9">
-        <v>0.02552390005560436</v>
+        <v>0.02380940283015452</v>
       </c>
       <c r="T9">
-        <v>0.02552390005560436</v>
+        <v>0.02380940283015451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>22.297341</v>
       </c>
       <c r="H10">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I10">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J10">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>1622.710634560664</v>
+        <v>1873.53660455698</v>
       </c>
       <c r="R10">
-        <v>14604.39571104597</v>
+        <v>16861.82944101282</v>
       </c>
       <c r="S10">
-        <v>0.01275411440633776</v>
+        <v>0.01373639833198705</v>
       </c>
       <c r="T10">
-        <v>0.01275411440633775</v>
+        <v>0.01373639833198705</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>22.297341</v>
       </c>
       <c r="H11">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I11">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J11">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>2582.832376530725</v>
+        <v>1893.68587175217</v>
       </c>
       <c r="R11">
-        <v>23245.49138877653</v>
+        <v>17043.17284576952</v>
       </c>
       <c r="S11">
-        <v>0.02030043984495413</v>
+        <v>0.01388412875775912</v>
       </c>
       <c r="T11">
-        <v>0.02030043984495413</v>
+        <v>0.01388412875775912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>22.297341</v>
       </c>
       <c r="H12">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I12">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J12">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>1297.412838870126</v>
+        <v>1426.383728814737</v>
       </c>
       <c r="R12">
-        <v>11676.71554983113</v>
+        <v>12837.45355933263</v>
       </c>
       <c r="S12">
-        <v>0.01019735215063843</v>
+        <v>0.01045796224402955</v>
       </c>
       <c r="T12">
-        <v>0.01019735215063843</v>
+        <v>0.01045796224402955</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>22.297341</v>
       </c>
       <c r="H13">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I13">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J13">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>1703.20699368457</v>
+        <v>2386.463172728922</v>
       </c>
       <c r="R13">
-        <v>15328.86294316113</v>
+        <v>21478.16855456029</v>
       </c>
       <c r="S13">
-        <v>0.01338679638406936</v>
+        <v>0.01749707407129824</v>
       </c>
       <c r="T13">
-        <v>0.01338679638406936</v>
+        <v>0.01749707407129824</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H14">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I14">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J14">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>5212.774416913407</v>
+        <v>9094.145132109239</v>
       </c>
       <c r="R14">
-        <v>46914.96975222066</v>
+        <v>81847.30618898316</v>
       </c>
       <c r="S14">
-        <v>0.04097115029121891</v>
+        <v>0.06667646616549161</v>
       </c>
       <c r="T14">
-        <v>0.04097115029121892</v>
+        <v>0.0666764661654916</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H15">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I15">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J15">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>8008.404668834421</v>
+        <v>7489.089708466019</v>
       </c>
       <c r="R15">
-        <v>72075.64201950979</v>
+        <v>67401.80737619418</v>
       </c>
       <c r="S15">
-        <v>0.06294413013828386</v>
+        <v>0.05490851853615082</v>
       </c>
       <c r="T15">
-        <v>0.06294413013828387</v>
+        <v>0.05490851853615081</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H16">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I16">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J16">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>4001.743821910022</v>
+        <v>4320.692967955736</v>
       </c>
       <c r="R16">
-        <v>36015.69439719019</v>
+        <v>38886.23671160162</v>
       </c>
       <c r="S16">
-        <v>0.03145274175350064</v>
+        <v>0.03167846282463722</v>
       </c>
       <c r="T16">
-        <v>0.03145274175350064</v>
+        <v>0.03167846282463721</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H17">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I17">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J17">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>6369.486515757846</v>
+        <v>4367.160593337574</v>
       </c>
       <c r="R17">
-        <v>57325.37864182062</v>
+        <v>39304.44534003817</v>
       </c>
       <c r="S17">
-        <v>0.05006262854350217</v>
+        <v>0.0320191542262538</v>
       </c>
       <c r="T17">
-        <v>0.05006262854350218</v>
+        <v>0.03201915422625379</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H18">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I18">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J18">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>3199.531513405616</v>
+        <v>3289.482645658595</v>
       </c>
       <c r="R18">
-        <v>28795.78362065055</v>
+        <v>29605.34381092735</v>
       </c>
       <c r="S18">
-        <v>0.02514754639523665</v>
+        <v>0.02411783352245191</v>
       </c>
       <c r="T18">
-        <v>0.02514754639523666</v>
+        <v>0.02411783352245191</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H19">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I19">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J19">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>4200.254758456361</v>
+        <v>5503.588573404672</v>
       </c>
       <c r="R19">
-        <v>37802.29282610725</v>
+        <v>49532.29716064205</v>
       </c>
       <c r="S19">
-        <v>0.03301298986040156</v>
+        <v>0.0403512185007644</v>
       </c>
       <c r="T19">
-        <v>0.03301298986040156</v>
+        <v>0.04035121850076439</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H20">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I20">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J20">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>966.5432568526198</v>
+        <v>1517.248310115639</v>
       </c>
       <c r="R20">
-        <v>8698.88931167358</v>
+        <v>13655.23479104075</v>
       </c>
       <c r="S20">
-        <v>0.00759679699758063</v>
+        <v>0.01112416330996152</v>
       </c>
       <c r="T20">
-        <v>0.007596796997580632</v>
+        <v>0.01112416330996152</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H21">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I21">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J21">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>1484.90399003152</v>
+        <v>1249.46419255562</v>
       </c>
       <c r="R21">
-        <v>13364.13591028368</v>
+        <v>11245.17773300058</v>
       </c>
       <c r="S21">
-        <v>0.01167098740091569</v>
+        <v>0.009160823337399909</v>
       </c>
       <c r="T21">
-        <v>0.0116709874009157</v>
+        <v>0.009160823337399907</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H22">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I22">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J22">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>741.99614204848</v>
+        <v>720.8554524837356</v>
       </c>
       <c r="R22">
-        <v>6677.965278436321</v>
+        <v>6487.699072353619</v>
       </c>
       <c r="S22">
-        <v>0.005831910806025945</v>
+        <v>0.005285169027931957</v>
       </c>
       <c r="T22">
-        <v>0.005831910806025946</v>
+        <v>0.005285169027931956</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H23">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I23">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J23">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>1181.0187337945</v>
+        <v>728.6080147159735</v>
       </c>
       <c r="R23">
-        <v>10629.1686041505</v>
+        <v>6557.472132443761</v>
       </c>
       <c r="S23">
-        <v>0.009282522543473287</v>
+        <v>0.005342009274691225</v>
       </c>
       <c r="T23">
-        <v>0.009282522543473289</v>
+        <v>0.005342009274691224</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H24">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I24">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J24">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>593.2513786393199</v>
+        <v>548.8104613217947</v>
       </c>
       <c r="R24">
-        <v>5339.26240775388</v>
+        <v>4939.294151896152</v>
       </c>
       <c r="S24">
-        <v>0.00466281282302191</v>
+        <v>0.004023769317952747</v>
       </c>
       <c r="T24">
-        <v>0.004662812823021912</v>
+        <v>0.004023769317952746</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H25">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I25">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J25">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>778.8036828674001</v>
+        <v>918.207301650272</v>
       </c>
       <c r="R25">
-        <v>7009.233145806601</v>
+        <v>8263.865714852449</v>
       </c>
       <c r="S25">
-        <v>0.006121209203794534</v>
+        <v>0.006732113595287662</v>
       </c>
       <c r="T25">
-        <v>0.006121209203794537</v>
+        <v>0.006732113595287659</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H26">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I26">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J26">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>5668.356557260183</v>
+        <v>11166.31409814734</v>
       </c>
       <c r="R26">
-        <v>51015.20901534165</v>
+        <v>100496.8268833261</v>
       </c>
       <c r="S26">
-        <v>0.04455191608871439</v>
+        <v>0.08186919752683684</v>
       </c>
       <c r="T26">
-        <v>0.0445519160887144</v>
+        <v>0.08186919752683684</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H27">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I27">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J27">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>8708.317200624171</v>
+        <v>9195.534795092795</v>
       </c>
       <c r="R27">
-        <v>78374.85480561754</v>
+        <v>82759.81315583517</v>
       </c>
       <c r="S27">
-        <v>0.06844527391262833</v>
+        <v>0.0674198350402179</v>
       </c>
       <c r="T27">
-        <v>0.06844527391262836</v>
+        <v>0.0674198350402179</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H28">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I28">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J28">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>4351.485220576716</v>
+        <v>5305.195166888687</v>
       </c>
       <c r="R28">
-        <v>39163.36698519044</v>
+        <v>47746.75650199818</v>
       </c>
       <c r="S28">
-        <v>0.03420162483605669</v>
+        <v>0.03889663744175817</v>
       </c>
       <c r="T28">
-        <v>0.0342016248360567</v>
+        <v>0.03889663744175817</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H29">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I29">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J29">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>6926.162110685494</v>
+        <v>5362.250788156115</v>
       </c>
       <c r="R29">
-        <v>62335.45899616944</v>
+        <v>48260.25709340503</v>
       </c>
       <c r="S29">
-        <v>0.05443796452374956</v>
+        <v>0.03931495792661131</v>
       </c>
       <c r="T29">
-        <v>0.05443796452374957</v>
+        <v>0.03931495792661131</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H30">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I30">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J30">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>3479.16176371048</v>
+        <v>4039.015862209946</v>
       </c>
       <c r="R30">
-        <v>31312.45587339433</v>
+        <v>36351.14275988952</v>
       </c>
       <c r="S30">
-        <v>0.02734537275312374</v>
+        <v>0.02961326222160959</v>
       </c>
       <c r="T30">
-        <v>0.02734537275312374</v>
+        <v>0.02961326222160959</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H31">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I31">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J31">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>4567.345466746082</v>
+        <v>6757.622380648962</v>
       </c>
       <c r="R31">
-        <v>41106.10920071474</v>
+        <v>60818.60142584066</v>
       </c>
       <c r="S31">
-        <v>0.03589823433425579</v>
+        <v>0.04954554534561358</v>
       </c>
       <c r="T31">
-        <v>0.0358982343342558</v>
+        <v>0.04954554534561358</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H32">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I32">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J32">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>6286.35545873127</v>
+        <v>7356.028032393716</v>
       </c>
       <c r="R32">
-        <v>56577.19912858143</v>
+        <v>66204.25229154344</v>
       </c>
       <c r="S32">
-        <v>0.0494092384753932</v>
+        <v>0.05393293675098298</v>
       </c>
       <c r="T32">
-        <v>0.04940923847539321</v>
+        <v>0.05393293675098298</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H33">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I33">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J33">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>9657.751204869093</v>
+        <v>6057.738581505363</v>
       </c>
       <c r="R33">
-        <v>86919.76084382184</v>
+        <v>54519.64723354827</v>
       </c>
       <c r="S33">
-        <v>0.07590759630918156</v>
+        <v>0.04441413631535649</v>
       </c>
       <c r="T33">
-        <v>0.07590759630918158</v>
+        <v>0.04441413631535648</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H34">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I34">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J34">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>4825.910754489127</v>
+        <v>3494.901184216884</v>
       </c>
       <c r="R34">
-        <v>43433.19679040214</v>
+        <v>31454.11065795196</v>
       </c>
       <c r="S34">
-        <v>0.03793049516446555</v>
+        <v>0.02562392145452012</v>
       </c>
       <c r="T34">
-        <v>0.03793049516446555</v>
+        <v>0.02562392145452011</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H35">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I35">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J35">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>7681.294666758011</v>
+        <v>3532.487691793138</v>
       </c>
       <c r="R35">
-        <v>69131.6520008221</v>
+        <v>31792.38922613824</v>
       </c>
       <c r="S35">
-        <v>0.06037312437725399</v>
+        <v>0.02589949826402567</v>
       </c>
       <c r="T35">
-        <v>0.060373124377254</v>
+        <v>0.02589949826402566</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H36">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I36">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J36">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>3858.481258928077</v>
+        <v>2660.780777304908</v>
       </c>
       <c r="R36">
-        <v>34726.3313303527</v>
+        <v>23947.02699574417</v>
       </c>
       <c r="S36">
-        <v>0.03032673254427919</v>
+        <v>0.0195083162732211</v>
       </c>
       <c r="T36">
-        <v>0.03032673254427919</v>
+        <v>0.0195083162732211</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H37">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I37">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J37">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>5065.305404970636</v>
+        <v>4451.716047700327</v>
       </c>
       <c r="R37">
-        <v>45587.74864473572</v>
+        <v>40065.44442930294</v>
       </c>
       <c r="S37">
-        <v>0.03981207940719964</v>
+        <v>0.03263909802636097</v>
       </c>
       <c r="T37">
-        <v>0.03981207940719965</v>
+        <v>0.03263909802636096</v>
       </c>
     </row>
   </sheetData>
